--- a/Excel_Challenge_529 - Sum with Signs.xlsx
+++ b/Excel_Challenge_529 - Sum with Signs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6C021F-2D4C-4237-91F2-4C0283457964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319302F3-CEBB-4B54-806B-96CDD7B4CB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Alt1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Strings</t>
   </si>
@@ -75,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +113,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -124,10 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,12 +625,39 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="850" row="9">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{8A5F6B0C-4618-4964-ABDF-49195CE8BCFD}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,4 +750,159 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB76401-E636-4C96-A6CC-A825F98E5508}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>-456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>13773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" cm="1">
+        <f t="array" ref="A15:A23">_xlfn.MAP(
+    A2:A10,
+    _xlfn.LAMBDA(_xlpm.a,
+        _xlfn.LET(
+            _xlpm.n, _xlfn.TEXTSPLIT(_xlpm.a, {" ","+"}, CHAR(_xlfn.SEQUENCE(26, , 65)), 1, 1),
+            IFERROR(
+                SUM((2 * ISERR(FIND("-", _xlpm.n)) - 1) * SUBSTITUTE(_xlpm.n, "-", )),
+            )
+        )
+    )
+)</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>13773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_529 - Sum with Signs.xlsx
+++ b/Excel_Challenge_529 - Sum with Signs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319302F3-CEBB-4B54-806B-96CDD7B4CB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4579F63-D66C-40CC-B8EB-C783D42AEFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt1" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Strings</t>
   </si>
@@ -627,7 +628,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="850" row="9">
+  <wetp:taskpane dockstate="right" visibility="0" width="976" row="9">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -756,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB76401-E636-4C96-A6CC-A825F98E5508}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,4 +906,218 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290B40DE-36A9-4222-B500-9D6F07651821}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>-456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>133</v>
+      </c>
+      <c r="D8" t="str" cm="1">
+        <f t="array" ref="D8:G8">_xlfn.REGEXEXTRACT(A8,"[0-9-]+",1)</f>
+        <v>-98</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>-2</v>
+      </c>
+      <c r="G8" t="str">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>13773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" cm="1">
+        <f t="array" ref="A16:A24">_xlfn.MAP(
+    A2:A10,
+    _xlfn.LAMBDA(_xlpm.x,
+        _xlfn.LET(
+            _xlpm.a, _xlfn.REGEXEXTRACT(_xlpm.x, "[0-9/-]+", 1),
+            IFERROR(
+                SUM(
+                    IF(
+                        IFERROR(FIND("-", _xlpm.a), 0),
+                        SUBSTITUTE(_xlpm.a, "-", "") * -1,
+                        _xlpm.a + 0
+                    )
+                ),
+                0
+            )
+        )
+    )
+)</f>
+        <v>242</v>
+      </c>
+      <c r="C16" cm="1">
+        <f t="array" ref="C16:C24">_xlfn.MAP(
+    A2:A10,
+    _xlfn.LAMBDA(_xlpm.x,
+        _xlfn.LET(
+            _xlpm.a, _xlfn.REGEXEXTRACT(_xlpm.x, "[0-9/-]+", 1),
+            IFERROR(
+                SUM(IF(IFERROR(FIND("-", _xlpm.a), 0), SUBSTITUTE(_xlpm.a, "-", "") * -1, _xlpm.a + 0)),
+                0
+            )
+        )
+    )
+)</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-169</v>
+      </c>
+      <c r="C17">
+        <v>-169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>178</v>
+      </c>
+      <c r="C18">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2647</v>
+      </c>
+      <c r="C19">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-456</v>
+      </c>
+      <c r="C20">
+        <v>-456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>133</v>
+      </c>
+      <c r="C22">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>13773</v>
+      </c>
+      <c r="C23">
+        <v>13773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_529 - Sum with Signs.xlsx
+++ b/Excel_Challenge_529 - Sum with Signs.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4579F63-D66C-40CC-B8EB-C783D42AEFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C21C6E8-3E8F-498B-989A-AB6C9AC4AA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt1" sheetId="2" r:id="rId2"/>
     <sheet name="Alt2" sheetId="4" r:id="rId3"/>
+    <sheet name="EDA" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,8 +40,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -51,16 +53,30 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
   <si>
     <t>Strings</t>
   </si>
@@ -363,6 +379,65 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <fb t="e">#N/A</fb>
+    <v>6</v>
+    <v>7</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -912,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290B40DE-36A9-4222-B500-9D6F07651821}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,6 +1012,13 @@
       <c r="B2">
         <v>242</v>
       </c>
+      <c r="D2" t="str" cm="1">
+        <f t="array" ref="D2:E2">_xlfn.REGEXEXTRACT(A2,"[0-9/-]+",1)</f>
+        <v>-98</v>
+      </c>
+      <c r="E2" t="str">
+        <v>340</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -945,6 +1027,16 @@
       <c r="B3">
         <v>-169</v>
       </c>
+      <c r="D3" t="str" cm="1">
+        <f t="array" ref="D3:F3">_xlfn.REGEXEXTRACT(A3,"[0-9/-]+",1)</f>
+        <v>785-</v>
+      </c>
+      <c r="E3" t="str">
+        <v>13-</v>
+      </c>
+      <c r="F3" t="str">
+        <v>629</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -953,6 +1045,19 @@
       <c r="B4">
         <v>178</v>
       </c>
+      <c r="D4" t="str" cm="1">
+        <f t="array" ref="D4:G4">_xlfn.REGEXEXTRACT(A4,"[0-9/-]+",1)</f>
+        <v>603</v>
+      </c>
+      <c r="E4" t="str">
+        <v>707</v>
+      </c>
+      <c r="F4" t="str">
+        <v>4086</v>
+      </c>
+      <c r="G4" t="str">
+        <v>-5218</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -961,6 +1066,10 @@
       <c r="B5">
         <v>2647</v>
       </c>
+      <c r="D5" t="str" cm="1">
+        <f t="array" ref="D5">_xlfn.REGEXEXTRACT(A5,"[0-9/-]+",1)</f>
+        <v>2647</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -969,6 +1078,10 @@
       <c r="B6">
         <v>-456</v>
       </c>
+      <c r="D6" t="str" cm="1">
+        <f t="array" ref="D6">_xlfn.REGEXEXTRACT(A6,"[0-9/-]+",1)</f>
+        <v>456-</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -977,6 +1090,10 @@
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="D7" t="e" cm="1" vm="1">
+        <f t="array" ref="D7">_xlfn.REGEXEXTRACT(A7,"[0-9/-]+",1)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -986,7 +1103,7 @@
         <v>133</v>
       </c>
       <c r="D8" t="str" cm="1">
-        <f t="array" ref="D8:G8">_xlfn.REGEXEXTRACT(A8,"[0-9-]+",1)</f>
+        <f t="array" ref="D8:G8">_xlfn.REGEXEXTRACT(A8,"[0-9/-]+",1)</f>
         <v>-98</v>
       </c>
       <c r="E8" t="str">
@@ -1006,6 +1123,19 @@
       <c r="B9">
         <v>13773</v>
       </c>
+      <c r="D9" t="str" cm="1">
+        <f t="array" ref="D9:G9">_xlfn.REGEXEXTRACT(A9,"[0-9/-]+",1)</f>
+        <v>4138</v>
+      </c>
+      <c r="E9" t="str">
+        <v>7371</v>
+      </c>
+      <c r="F9" t="str">
+        <v>7255</v>
+      </c>
+      <c r="G9" t="str">
+        <v>-4991</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1013,6 +1143,19 @@
       </c>
       <c r="B10">
         <v>0</v>
+      </c>
+      <c r="D10" t="str" cm="1">
+        <f t="array" ref="D10:G10">_xlfn.REGEXEXTRACT(A10,"[0-9/-]+",1)</f>
+        <v>297</v>
+      </c>
+      <c r="E10" t="str">
+        <v>-297</v>
+      </c>
+      <c r="F10" t="str">
+        <v>345</v>
+      </c>
+      <c r="G10" t="str">
+        <v>345-</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1120,4 +1263,184 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF97E6D-3280-4E54-8FBE-3A89AB17265A}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>242</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" ref="C2:D2">_xlfn.REGEXEXTRACT(A2, "[0-9/-]+", 1)</f>
+        <v>-98</v>
+      </c>
+      <c r="D2" t="str">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-169</v>
+      </c>
+      <c r="C3" t="str" cm="1">
+        <f t="array" ref="C3:E3">_xlfn.REGEXEXTRACT(A3, "[0-9/-]+", 1)</f>
+        <v>785-</v>
+      </c>
+      <c r="D3" t="str">
+        <v>13-</v>
+      </c>
+      <c r="E3" t="str">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>178</v>
+      </c>
+      <c r="C4" t="str" cm="1">
+        <f t="array" ref="C4:F4">_xlfn.REGEXEXTRACT(A4, "[0-9/-]+", 1)</f>
+        <v>603</v>
+      </c>
+      <c r="D4" t="str">
+        <v>707</v>
+      </c>
+      <c r="E4" t="str">
+        <v>4086</v>
+      </c>
+      <c r="F4" t="str">
+        <v>-5218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2647</v>
+      </c>
+      <c r="C5" t="str" cm="1">
+        <f t="array" ref="C5">_xlfn.REGEXEXTRACT(A5, "[0-9/-]+", 1)</f>
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>-456</v>
+      </c>
+      <c r="C6" t="str" cm="1">
+        <f t="array" ref="C6">_xlfn.REGEXEXTRACT(A6, "[0-9/-]+", 1)</f>
+        <v>456-</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="e" cm="1" vm="1">
+        <f t="array" ref="C7">_xlfn.REGEXEXTRACT(A7, "[0-9/-]+", 1)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>133</v>
+      </c>
+      <c r="C8" t="str" cm="1">
+        <f t="array" ref="C8:F8">_xlfn.REGEXEXTRACT(A8, "[0-9/-]+", 1)</f>
+        <v>-98</v>
+      </c>
+      <c r="D8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <v>-2</v>
+      </c>
+      <c r="F8" t="str">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>13773</v>
+      </c>
+      <c r="C9" t="str" cm="1">
+        <f t="array" ref="C9:F9">_xlfn.REGEXEXTRACT(A9, "[0-9/-]+", 1)</f>
+        <v>4138</v>
+      </c>
+      <c r="D9" t="str">
+        <v>7371</v>
+      </c>
+      <c r="E9" t="str">
+        <v>7255</v>
+      </c>
+      <c r="F9" t="str">
+        <v>-4991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="str" cm="1">
+        <f t="array" ref="C10:F10">_xlfn.REGEXEXTRACT(A10, "[0-9/-]+", 1)</f>
+        <v>297</v>
+      </c>
+      <c r="D10" t="str">
+        <v>-297</v>
+      </c>
+      <c r="E10" t="str">
+        <v>345</v>
+      </c>
+      <c r="F10" t="str">
+        <v>345-</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_529 - Sum with Signs.xlsx
+++ b/Excel_Challenge_529 - Sum with Signs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C21C6E8-3E8F-498B-989A-AB6C9AC4AA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A9CCF4-ACD5-4A36-A561-3D38F90867CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,11 +53,18 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
         </ext>
       </extLst>
     </bk>
@@ -67,9 +74,12 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="2">
     <bk>
       <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -138,7 +148,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +167,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -170,11 +186,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,20 +439,29 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <rv s="0">
     <fb t="e">#N/A</fb>
     <v>6</v>
     <v>7</v>
   </rv>
+  <rv s="1">
+    <fb t="e">#N/A</fb>
+    <v>6</v>
+    <v>1</v>
+  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <s t="_error">
     <k n="errorType" t="i"/>
     <k n="subType" t="i"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
   </s>
 </rvStructures>
 </file>
@@ -988,7 +1014,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C24"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1267,19 +1293,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF97E6D-3280-4E54-8FBE-3A89AB17265A}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
+    <col min="12" max="12" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1301,8 +1329,21 @@
       <c r="D2" t="str">
         <v>340</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="4"/>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2:I2">IF(IFERROR(FIND("-",_xlfn.ANCHORARRAY( C2)), 0), SUBSTITUTE(_xlfn.ANCHORARRAY(C2), "-", "") * -1,_xlfn.ANCHORARRAY( C2) + 0)</f>
+        <v>-98</v>
+      </c>
+      <c r="I2">
+        <v>340</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2">
+        <f>IFERROR(SUM(_xlfn.ANCHORARRAY(H2)),0)</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1319,8 +1360,24 @@
       <c r="E3" t="str">
         <v>629</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3:J3">IF(IFERROR(FIND("-",_xlfn.ANCHORARRAY( C3)), 0), SUBSTITUTE(_xlfn.ANCHORARRAY(C3), "-", "") * -1,_xlfn.ANCHORARRAY( C3) + 0)</f>
+        <v>-785</v>
+      </c>
+      <c r="I3">
+        <v>-13</v>
+      </c>
+      <c r="J3">
+        <v>629</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3">
+        <f t="shared" ref="M3:M10" si="0">IFERROR(SUM(_xlfn.ANCHORARRAY(H3)),0)</f>
+        <v>-169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1340,8 +1397,27 @@
       <c r="F4" t="str">
         <v>-5218</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="4"/>
+      <c r="H4" cm="1">
+        <f t="array" ref="H4:K4">IF(IFERROR(FIND("-",_xlfn.ANCHORARRAY( C4)), 0), SUBSTITUTE(_xlfn.ANCHORARRAY(C4), "-", "") * -1,_xlfn.ANCHORARRAY( C4) + 0)</f>
+        <v>603</v>
+      </c>
+      <c r="I4">
+        <v>707</v>
+      </c>
+      <c r="J4">
+        <v>4086</v>
+      </c>
+      <c r="K4">
+        <v>-5218</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1352,8 +1428,18 @@
         <f t="array" ref="C5">_xlfn.REGEXEXTRACT(A5, "[0-9/-]+", 1)</f>
         <v>2647</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="4"/>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5">IF(IFERROR(FIND("-",_xlfn.ANCHORARRAY( C5)), 0), SUBSTITUTE(_xlfn.ANCHORARRAY(C5), "-", "") * -1,_xlfn.ANCHORARRAY( C5) + 0)</f>
+        <v>2647</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1364,8 +1450,18 @@
         <f t="array" ref="C6">_xlfn.REGEXEXTRACT(A6, "[0-9/-]+", 1)</f>
         <v>456-</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="4"/>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6">IF(IFERROR(FIND("-",_xlfn.ANCHORARRAY( C6)), 0), SUBSTITUTE(_xlfn.ANCHORARRAY(C6), "-", "") * -1,_xlfn.ANCHORARRAY( C6) + 0)</f>
+        <v>-456</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>-456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1376,8 +1472,18 @@
         <f t="array" ref="C7">_xlfn.REGEXEXTRACT(A7, "[0-9/-]+", 1)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="4"/>
+      <c r="H7" t="e" cm="1" vm="2">
+        <f t="array" ref="H7">IF(IFERROR(FIND("-",_xlfn.ANCHORARRAY( C7)), 0), SUBSTITUTE(_xlfn.ANCHORARRAY(C7), "-", "") * -1,_xlfn.ANCHORARRAY( C7) + 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1397,8 +1503,27 @@
       <c r="F8" t="str">
         <v>233</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="4"/>
+      <c r="H8" cm="1">
+        <f t="array" ref="H8:K8">IF(IFERROR(FIND("-",_xlfn.ANCHORARRAY( C8)), 0), SUBSTITUTE(_xlfn.ANCHORARRAY(C8), "-", "") * -1,_xlfn.ANCHORARRAY( C8) + 0)</f>
+        <v>-98</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>-2</v>
+      </c>
+      <c r="K8">
+        <v>233</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1418,8 +1543,27 @@
       <c r="F9" t="str">
         <v>-4991</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="4"/>
+      <c r="H9" cm="1">
+        <f t="array" ref="H9:K9">IF(IFERROR(FIND("-",_xlfn.ANCHORARRAY( C9)), 0), SUBSTITUTE(_xlfn.ANCHORARRAY(C9), "-", "") * -1,_xlfn.ANCHORARRAY( C9) + 0)</f>
+        <v>4138</v>
+      </c>
+      <c r="I9">
+        <v>7371</v>
+      </c>
+      <c r="J9">
+        <v>7255</v>
+      </c>
+      <c r="K9">
+        <v>-4991</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>13773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1438,6 +1582,25 @@
       </c>
       <c r="F10" t="str">
         <v>345-</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10:K10">IF(IFERROR(FIND("-",_xlfn.ANCHORARRAY( C10)), 0), SUBSTITUTE(_xlfn.ANCHORARRAY(C10), "-", "") * -1,_xlfn.ANCHORARRAY( C10) + 0)</f>
+        <v>297</v>
+      </c>
+      <c r="I10">
+        <v>-297</v>
+      </c>
+      <c r="J10">
+        <v>345</v>
+      </c>
+      <c r="K10">
+        <v>-345</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Challenge_529 - Sum with Signs.xlsx
+++ b/Excel_Challenge_529 - Sum with Signs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A9CCF4-ACD5-4A36-A561-3D38F90867CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC7DD99-56D5-4692-87AF-0E6E5411BDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -745,6 +745,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1296,7 +1299,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
